--- a/Employee_Reports21/Ifras Mohammed Q0598.xlsx
+++ b/Employee_Reports21/Ifras Mohammed Q0598.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>-19597</v>
+        <v>-19598</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
